--- a/data/trans_orig/P16A_n_R3-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R3-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>16591</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10868</v>
+        <v>10104</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26509</v>
+        <v>25768</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02840298132562394</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01860433587546316</v>
+        <v>0.01729788591159912</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0453819764898698</v>
+        <v>0.04411243040948387</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>44</v>
@@ -765,19 +765,19 @@
         <v>45233</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33766</v>
+        <v>33778</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>62685</v>
+        <v>58999</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0490414791085757</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03660952397631973</v>
+        <v>0.03662210849905682</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06796336316672774</v>
+        <v>0.06396702803205964</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>62</v>
@@ -786,19 +786,19 @@
         <v>61824</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48482</v>
+        <v>46956</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>76966</v>
+        <v>77848</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04103882070791478</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0321823732345175</v>
+        <v>0.03116944211327027</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05109048454823829</v>
+        <v>0.05167544260362478</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>567550</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>557632</v>
+        <v>558373</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>573273</v>
+        <v>574037</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9715970186743761</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.95461802351013</v>
+        <v>0.9558875695905161</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9813956641245368</v>
+        <v>0.9827021140884007</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>841</v>
@@ -836,19 +836,19 @@
         <v>877100</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>859648</v>
+        <v>863334</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>888567</v>
+        <v>888555</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9509585208914243</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9320366368332724</v>
+        <v>0.9360329719679403</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9633904760236802</v>
+        <v>0.9633778915009432</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1397</v>
@@ -857,19 +857,19 @@
         <v>1444650</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1429508</v>
+        <v>1428626</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1457992</v>
+        <v>1459518</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9589611792920852</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9489095154517616</v>
+        <v>0.9483245573963749</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9678176267654826</v>
+        <v>0.9688305578867296</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>12567</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6905</v>
+        <v>6963</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20442</v>
+        <v>21376</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01165839598664825</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006406419421612081</v>
+        <v>0.006460037647347668</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01896507899850544</v>
+        <v>0.01983152603226374</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -982,19 +982,19 @@
         <v>19872</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12006</v>
+        <v>12307</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30375</v>
+        <v>30533</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01879107446738199</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.011353142864166</v>
+        <v>0.01163731132542735</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02872212194834354</v>
+        <v>0.0288717782524048</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -1003,19 +1003,19 @@
         <v>32439</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22299</v>
+        <v>23454</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44776</v>
+        <v>45537</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01519073905887979</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01044232573724181</v>
+        <v>0.01098310335907128</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02096823733009709</v>
+        <v>0.02132440692142649</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1065327</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1057452</v>
+        <v>1056518</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1070989</v>
+        <v>1070931</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9883416040133517</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9810349210014946</v>
+        <v>0.980168473967736</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9935935805783879</v>
+        <v>0.9935399623526523</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1009</v>
@@ -1053,19 +1053,19 @@
         <v>1037666</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1027163</v>
+        <v>1027005</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1045532</v>
+        <v>1045231</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.981208925532618</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9712778780516564</v>
+        <v>0.9711282217475952</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.988646857135834</v>
+        <v>0.9883626886745727</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2051</v>
@@ -1074,19 +1074,19 @@
         <v>2102993</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2090656</v>
+        <v>2089895</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2113133</v>
+        <v>2111978</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9848092609411202</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9790317626699031</v>
+        <v>0.9786755930785735</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9895576742627585</v>
+        <v>0.9890168966409287</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>12885</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6620</v>
+        <v>6747</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22062</v>
+        <v>22067</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01148837934120096</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005902599525794762</v>
+        <v>0.006015929197261467</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01967047416516313</v>
+        <v>0.01967426024042669</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1199,19 +1199,19 @@
         <v>14365</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8448</v>
+        <v>8168</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23767</v>
+        <v>23404</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01445230668384224</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008499830761450333</v>
+        <v>0.008217513747797917</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02391239310026</v>
+        <v>0.02354635613112683</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -1220,19 +1220,19 @@
         <v>27250</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17879</v>
+        <v>18338</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39601</v>
+        <v>39827</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01288091897324754</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008451511484334075</v>
+        <v>0.008668453528648918</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01871920110820099</v>
+        <v>0.01882595405589361</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1108709</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1099532</v>
+        <v>1099527</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1114974</v>
+        <v>1114847</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9885116206587991</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.980329525834837</v>
+        <v>0.9803257397595733</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9940974004742053</v>
+        <v>0.9939840708027383</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>968</v>
@@ -1270,19 +1270,19 @@
         <v>979575</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>970173</v>
+        <v>970536</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>985492</v>
+        <v>985772</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9855476933161578</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9760876068997401</v>
+        <v>0.9764536438688732</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9915001692385497</v>
+        <v>0.9917824862522021</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2059</v>
@@ -1291,19 +1291,19 @@
         <v>2088284</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2075933</v>
+        <v>2075707</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2097655</v>
+        <v>2097196</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9871190810267525</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9812807988917991</v>
+        <v>0.9811740459441072</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9915484885156661</v>
+        <v>0.9913315464713511</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>5594</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1894</v>
+        <v>2044</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11260</v>
+        <v>11595</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01250817004702828</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004235366440310004</v>
+        <v>0.004570643402447631</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02517916279049662</v>
+        <v>0.02592770767493504</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1416,19 +1416,19 @@
         <v>5287</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1940</v>
+        <v>1971</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11721</v>
+        <v>11449</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01549694811836091</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005687742643563994</v>
+        <v>0.005776969875942094</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03435506908786842</v>
+        <v>0.03355886353650903</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -1437,19 +1437,19 @@
         <v>10881</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6252</v>
+        <v>5726</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20777</v>
+        <v>18793</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0138015497739352</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007930794364611526</v>
+        <v>0.007262660213644513</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02635536918684844</v>
+        <v>0.02383870572558684</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>441606</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>435940</v>
+        <v>435605</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>445306</v>
+        <v>445156</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9874918299529717</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9748208372095031</v>
+        <v>0.9740722923250646</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9957646335596898</v>
+        <v>0.9954293565975523</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>334</v>
@@ -1487,19 +1487,19 @@
         <v>335871</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>329437</v>
+        <v>329709</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>339218</v>
+        <v>339187</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9845030518816391</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9656449309121317</v>
+        <v>0.9664411364634909</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.994312257356436</v>
+        <v>0.9942230301240579</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>764</v>
@@ -1508,19 +1508,19 @@
         <v>777477</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>767581</v>
+        <v>769565</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>782106</v>
+        <v>782632</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9861984502260648</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9736446308131516</v>
+        <v>0.9761612942744132</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9920692056353885</v>
+        <v>0.9927373397863555</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>47637</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36772</v>
+        <v>35311</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65280</v>
+        <v>63681</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01474445644070697</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01138161901696798</v>
+        <v>0.01092947263430448</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02020539592256646</v>
+        <v>0.01971053601081229</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>82</v>
@@ -1633,19 +1633,19 @@
         <v>84756</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>67318</v>
+        <v>68792</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>105837</v>
+        <v>107345</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0255678075509531</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02030728460002106</v>
+        <v>0.02075185252085735</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03192698318810579</v>
+        <v>0.0323818423571791</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>131</v>
@@ -1654,19 +1654,19 @@
         <v>132393</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>110839</v>
+        <v>111026</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>156978</v>
+        <v>155134</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02022569353821461</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01693277569436916</v>
+        <v>0.01696134765811872</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0239814849245142</v>
+        <v>0.02369971199344097</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3183192</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3165549</v>
+        <v>3167148</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3194057</v>
+        <v>3195518</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.985255543559293</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9797946040774332</v>
+        <v>0.9802894639891874</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9886183809830319</v>
+        <v>0.9890705273656955</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3152</v>
@@ -1704,19 +1704,19 @@
         <v>3230213</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3209132</v>
+        <v>3207624</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3247651</v>
+        <v>3246177</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9744321924490469</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9680730168118943</v>
+        <v>0.9676181576428209</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9796927153999797</v>
+        <v>0.9792481474791427</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6271</v>
@@ -1725,19 +1725,19 @@
         <v>6413405</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6388820</v>
+        <v>6390664</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6434959</v>
+        <v>6434772</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9797743064617854</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9760185150754855</v>
+        <v>0.976300288006559</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9830672243056309</v>
+        <v>0.9830386523418811</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>28593</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18875</v>
+        <v>19158</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42181</v>
+        <v>42344</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02738959942231055</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01808105415946273</v>
+        <v>0.01835125366046525</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04040569512052198</v>
+        <v>0.04056188488652208</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>81</v>
@@ -2090,19 +2090,19 @@
         <v>85378</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>69819</v>
+        <v>67326</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>105218</v>
+        <v>103451</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0762348337605785</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06234231501404094</v>
+        <v>0.06011634917966924</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09395102318312011</v>
+        <v>0.09237312982699354</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>105</v>
@@ -2111,19 +2111,19 @@
         <v>113970</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>93623</v>
+        <v>94430</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>137001</v>
+        <v>136616</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05266992406387365</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04326659617856547</v>
+        <v>0.04363974309690025</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06331326251829582</v>
+        <v>0.06313525014639268</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>1015342</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1001754</v>
+        <v>1001591</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1025060</v>
+        <v>1024777</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9726104005776894</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9595943048794779</v>
+        <v>0.9594381151134782</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9819189458405372</v>
+        <v>0.9816487463395349</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>950</v>
@@ -2161,19 +2161,19 @@
         <v>1034550</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1014710</v>
+        <v>1016477</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1050109</v>
+        <v>1052602</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9237651662394215</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9060489768168802</v>
+        <v>0.9076268701730066</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9376576849859591</v>
+        <v>0.9398836508203309</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1904</v>
@@ -2182,19 +2182,19 @@
         <v>2049893</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2026862</v>
+        <v>2027247</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2070240</v>
+        <v>2069433</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9473300759361264</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9366867374817042</v>
+        <v>0.9368647498536075</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9567334038214349</v>
+        <v>0.9563602569030999</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>15821</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8239</v>
+        <v>8249</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28504</v>
+        <v>28931</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01619229618803214</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008432557023264656</v>
+        <v>0.008442144467609538</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02917248001315663</v>
+        <v>0.02961037273108566</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -2307,19 +2307,19 @@
         <v>37354</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25956</v>
+        <v>26724</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52545</v>
+        <v>52454</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03413631876441259</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02372005877665918</v>
+        <v>0.02442215469654744</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04801853778532915</v>
+        <v>0.04793542792562867</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>47</v>
@@ -2328,19 +2328,19 @@
         <v>53175</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40377</v>
+        <v>39444</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>71042</v>
+        <v>70500</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02567191459635023</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01949315134021528</v>
+        <v>0.01904258162941432</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03429750897397743</v>
+        <v>0.03403605647891637</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>961252</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>948569</v>
+        <v>948142</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>968834</v>
+        <v>968824</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9838077038119678</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9708275199868436</v>
+        <v>0.9703896272689144</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9915674429767354</v>
+        <v>0.9915578555323905</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>985</v>
@@ -2378,19 +2378,19 @@
         <v>1056908</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1041717</v>
+        <v>1041808</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1068306</v>
+        <v>1067538</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9658636812355874</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9519814622146707</v>
+        <v>0.9520645720743713</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9762799412233407</v>
+        <v>0.9755778453034526</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1897</v>
@@ -2399,19 +2399,19 @@
         <v>2018160</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2000293</v>
+        <v>2000835</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2030958</v>
+        <v>2031891</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9743280854036498</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9657024910260225</v>
+        <v>0.9659639435210836</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9805068486597848</v>
+        <v>0.9809574183705854</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>6251</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2276</v>
+        <v>2212</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13440</v>
+        <v>13516</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007062637024557027</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002571860275649675</v>
+        <v>0.00249960833656168</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01518455194069851</v>
+        <v>0.0152705442156049</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -2524,19 +2524,19 @@
         <v>36777</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25581</v>
+        <v>26081</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50394</v>
+        <v>50620</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04199291910371811</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02920902806405068</v>
+        <v>0.02977935858221322</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05754066123781683</v>
+        <v>0.05779912783045627</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -2545,19 +2545,19 @@
         <v>43028</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30189</v>
+        <v>30560</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>58009</v>
+        <v>58732</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02443534672900721</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01714390542841448</v>
+        <v>0.01735486478495281</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03294261007244638</v>
+        <v>0.0333530897348074</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>878864</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>871675</v>
+        <v>871599</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>882839</v>
+        <v>882903</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.992937362975443</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9848154480593014</v>
+        <v>0.9847294557843951</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9974281397243503</v>
+        <v>0.9975003916634383</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>788</v>
@@ -2595,19 +2595,19 @@
         <v>839019</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>825402</v>
+        <v>825176</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>850215</v>
+        <v>849715</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9580070808962819</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9424593387621831</v>
+        <v>0.9422008721695436</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9707909719359492</v>
+        <v>0.9702206414177869</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1612</v>
@@ -2616,19 +2616,19 @@
         <v>1717883</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1702902</v>
+        <v>1702179</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1730722</v>
+        <v>1730351</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9755646532709928</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9670573899275537</v>
+        <v>0.9666469102651927</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9828560945715856</v>
+        <v>0.9826451352150473</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>11229</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5299</v>
+        <v>5250</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21116</v>
+        <v>21621</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02232355302625659</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01053352060253838</v>
+        <v>0.01043649954143903</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04197882715169275</v>
+        <v>0.04298186026440992</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -2741,19 +2741,19 @@
         <v>15520</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9019</v>
+        <v>9153</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23644</v>
+        <v>24630</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03428129769456947</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01992140925873226</v>
+        <v>0.02021805228937508</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05222573127187994</v>
+        <v>0.05440198784273077</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -2762,19 +2762,19 @@
         <v>26750</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17895</v>
+        <v>17152</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>39515</v>
+        <v>38587</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02798784788170947</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01872339743044768</v>
+        <v>0.0179460528087729</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04134450906285982</v>
+        <v>0.04037331494514871</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>491794</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>481907</v>
+        <v>481402</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>497724</v>
+        <v>497773</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9776764469737435</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9580211728483072</v>
+        <v>0.95701813973559</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9894664793974617</v>
+        <v>0.989563500458561</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>397</v>
@@ -2812,19 +2812,19 @@
         <v>437216</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>429092</v>
+        <v>428106</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>443717</v>
+        <v>443583</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9657187023054306</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9477742687281201</v>
+        <v>0.945598012157269</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9800785907412679</v>
+        <v>0.9797819477106249</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>849</v>
@@ -2833,19 +2833,19 @@
         <v>929008</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>916243</v>
+        <v>917171</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>937863</v>
+        <v>938606</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9720121521182905</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9586554909371401</v>
+        <v>0.9596266850548513</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9812766025695523</v>
+        <v>0.9820539471912269</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>61894</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>45682</v>
+        <v>46969</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>81455</v>
+        <v>81522</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01815543191640202</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01339981552735067</v>
+        <v>0.0137772289321236</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02389295806052373</v>
+        <v>0.02391285895700963</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>164</v>
@@ -2958,19 +2958,19 @@
         <v>175029</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>149889</v>
+        <v>149541</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>200594</v>
+        <v>201200</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04940529376104705</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04230901584148523</v>
+        <v>0.04221063306250052</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05662137658635148</v>
+        <v>0.05679244725818761</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>215</v>
@@ -2979,19 +2979,19 @@
         <v>236924</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>207811</v>
+        <v>207877</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>270752</v>
+        <v>268960</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0340805878328884</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02989289479384828</v>
+        <v>0.02990235801467759</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03894663671773619</v>
+        <v>0.03868883793384443</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3347251</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3327690</v>
+        <v>3327623</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3363463</v>
+        <v>3362176</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.981844568083598</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9761070419394767</v>
+        <v>0.9760871410429903</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9866001844726494</v>
+        <v>0.9862227710678765</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3120</v>
@@ -3029,19 +3029,19 @@
         <v>3367693</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3342128</v>
+        <v>3341522</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3392833</v>
+        <v>3393181</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9505947062389529</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9433786234136485</v>
+        <v>0.9432075527418124</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9576909841585144</v>
+        <v>0.9577893669374996</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6262</v>
@@ -3050,19 +3050,19 @@
         <v>6714943</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6681115</v>
+        <v>6682907</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6744056</v>
+        <v>6743990</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9659194121671116</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9610533632822641</v>
+        <v>0.9613111620661559</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9701071052061518</v>
+        <v>0.9700976419853227</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>27804</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18420</v>
+        <v>18625</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40787</v>
+        <v>40139</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02464888892583809</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01633006745078669</v>
+        <v>0.01651140617248307</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03615874428438221</v>
+        <v>0.03558426179493077</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -3415,19 +3415,19 @@
         <v>85042</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>68480</v>
+        <v>67283</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>106627</v>
+        <v>103284</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06751729561034944</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05436835672963607</v>
+        <v>0.05341776854985197</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08465384622852123</v>
+        <v>0.08199997595306964</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>102</v>
@@ -3436,19 +3436,19 @@
         <v>112846</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>93904</v>
+        <v>94120</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>136102</v>
+        <v>136976</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04726419851290306</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03933058283717191</v>
+        <v>0.03942114551717141</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05700457210475419</v>
+        <v>0.0573707636228013</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1100193</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1087210</v>
+        <v>1087858</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1109577</v>
+        <v>1109372</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9753511110741619</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9638412557156176</v>
+        <v>0.9644157382050692</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9836699325492131</v>
+        <v>0.9834885938275169</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1113</v>
@@ -3486,19 +3486,19 @@
         <v>1174519</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1152934</v>
+        <v>1156277</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1191081</v>
+        <v>1192278</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9324827043896505</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9153461537714788</v>
+        <v>0.9180000240469305</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9456316432703639</v>
+        <v>0.9465822314501483</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2152</v>
@@ -3507,19 +3507,19 @@
         <v>2274712</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2251456</v>
+        <v>2250582</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2293654</v>
+        <v>2293438</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9527358014870969</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9429954278952458</v>
+        <v>0.9426292363771984</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9606694171628281</v>
+        <v>0.9605788544828284</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>15409</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8966</v>
+        <v>9030</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23953</v>
+        <v>24574</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0169549600828383</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009865795450686464</v>
+        <v>0.009936164503110479</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02635637205185528</v>
+        <v>0.02703914150650977</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -3632,19 +3632,19 @@
         <v>32556</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21451</v>
+        <v>22974</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44597</v>
+        <v>47142</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0323464605633244</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02131331666696641</v>
+        <v>0.02282622238077087</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04431003547525549</v>
+        <v>0.04683838459796993</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -3653,19 +3653,19 @@
         <v>47965</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35711</v>
+        <v>34543</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62760</v>
+        <v>62932</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02504307390363978</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01864512562798136</v>
+        <v>0.01803527712335119</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03276771438807174</v>
+        <v>0.03285730193510947</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>893416</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>884872</v>
+        <v>884251</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>899859</v>
+        <v>899795</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9830450399171617</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9736436279481444</v>
+        <v>0.9729608584934902</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9901342045493134</v>
+        <v>0.9900638354968896</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>922</v>
@@ -3703,19 +3703,19 @@
         <v>973919</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>961878</v>
+        <v>959333</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>985024</v>
+        <v>983501</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9676535394366756</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9556899645247444</v>
+        <v>0.9531616154020299</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9786866833330335</v>
+        <v>0.9771737776192291</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1787</v>
@@ -3724,19 +3724,19 @@
         <v>1867335</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1852540</v>
+        <v>1852368</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1879589</v>
+        <v>1880757</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9749569260963602</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9672322856119283</v>
+        <v>0.9671426980648905</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9813548743720186</v>
+        <v>0.9819647228766488</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>8623</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3731</v>
+        <v>4463</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15926</v>
+        <v>15497</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01046820393731222</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004528917115043397</v>
+        <v>0.005417539183992547</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01933388012426918</v>
+        <v>0.01881217919447486</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -3849,19 +3849,19 @@
         <v>22914</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13971</v>
+        <v>14267</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33719</v>
+        <v>35282</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02971806066437849</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01811948551881429</v>
+        <v>0.01850274909490483</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04373063055660561</v>
+        <v>0.04575763336547579</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -3870,19 +3870,19 @@
         <v>31538</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21843</v>
+        <v>21230</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>44891</v>
+        <v>43861</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01977507753119062</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01369622344187287</v>
+        <v>0.01331186878715422</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02814826206126245</v>
+        <v>0.02750222594907924</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>815136</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>807833</v>
+        <v>808262</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>820028</v>
+        <v>819296</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9895317960626878</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9806661198757307</v>
+        <v>0.9811878208055252</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9954710828849564</v>
+        <v>0.9945824608160078</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>708</v>
@@ -3920,19 +3920,19 @@
         <v>748145</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>737340</v>
+        <v>735777</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>757088</v>
+        <v>756792</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9702819393356215</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9562693694433945</v>
+        <v>0.9542423666345239</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9818805144811857</v>
+        <v>0.9814972509050951</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1486</v>
@@ -3941,19 +3941,19 @@
         <v>1563280</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1549927</v>
+        <v>1550957</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1572975</v>
+        <v>1573588</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9802249224688093</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9718517379387375</v>
+        <v>0.9724977740509209</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9863037765581271</v>
+        <v>0.9866881312128458</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>3625</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>937</v>
+        <v>1041</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8601</v>
+        <v>9198</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007154450516116613</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001850121056411286</v>
+        <v>0.002054452560385857</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01697421821682023</v>
+        <v>0.01815296730637939</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -4066,19 +4066,19 @@
         <v>11569</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5942</v>
+        <v>5885</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20459</v>
+        <v>19945</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02362512143345998</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01213420749857517</v>
+        <v>0.01201752036552325</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04177980385221259</v>
+        <v>0.04072980111071587</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -4087,19 +4087,19 @@
         <v>15194</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8651</v>
+        <v>8600</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24702</v>
+        <v>24581</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01524925154722109</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008682313702841294</v>
+        <v>0.008631377835072269</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02479110422615962</v>
+        <v>0.02466974942211843</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>503076</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>498100</v>
+        <v>497503</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>505764</v>
+        <v>505660</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9928455494838834</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9830257817831798</v>
+        <v>0.9818470326936206</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9981498789435888</v>
+        <v>0.9979455474396142</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>445</v>
@@ -4137,19 +4137,19 @@
         <v>478129</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>469239</v>
+        <v>469753</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>483756</v>
+        <v>483813</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.97637487856654</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9582201961477874</v>
+        <v>0.959270198889284</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9878657925014249</v>
+        <v>0.9879824796344767</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>912</v>
@@ -4158,19 +4158,19 @@
         <v>981204</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>971696</v>
+        <v>971817</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>987747</v>
+        <v>987798</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9847507484527789</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9752088957738406</v>
+        <v>0.9753302505778816</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9913176862971587</v>
+        <v>0.9913686221649278</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>55461</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41562</v>
+        <v>41727</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>70662</v>
+        <v>72645</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01647067550319286</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01234278582208111</v>
+        <v>0.01239178999645351</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02098475161882427</v>
+        <v>0.02157384428123551</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>134</v>
@@ -4283,19 +4283,19 @@
         <v>152082</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>129199</v>
+        <v>130825</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>179176</v>
+        <v>178075</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04312178554708699</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03663352611328175</v>
+        <v>0.03709461001962305</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05080414759472449</v>
+        <v>0.05049211880326216</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>190</v>
@@ -4304,19 +4304,19 @@
         <v>207543</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>179788</v>
+        <v>178342</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>240999</v>
+        <v>238058</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03010454756544292</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02607860780934398</v>
+        <v>0.0258688683531031</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03495736888124294</v>
+        <v>0.03453074630047139</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3311821</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3296620</v>
+        <v>3294637</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3325720</v>
+        <v>3325555</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9835293244968072</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9790152483811757</v>
+        <v>0.9784261557187647</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.987657214177919</v>
+        <v>0.9876082100035465</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3188</v>
@@ -4354,19 +4354,19 @@
         <v>3374710</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3347616</v>
+        <v>3348717</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3397593</v>
+        <v>3395967</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.956878214452913</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.949195852405275</v>
+        <v>0.9495078811967379</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.963366473886718</v>
+        <v>0.962905389980377</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6337</v>
@@ -4375,19 +4375,19 @@
         <v>6686532</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6653076</v>
+        <v>6656017</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6714287</v>
+        <v>6715733</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9698954524345571</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.965042631118757</v>
+        <v>0.9654692536995286</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.973921392190656</v>
+        <v>0.9741311316468969</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>43848</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32777</v>
+        <v>33367</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56059</v>
+        <v>57994</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.08791687610902819</v>
+        <v>0.08791687610902821</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06572024090732674</v>
+        <v>0.06690281256216137</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1124006874772353</v>
+        <v>0.1162816233708924</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>173</v>
@@ -4740,19 +4740,19 @@
         <v>105380</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>91327</v>
+        <v>89223</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>121843</v>
+        <v>120681</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1689913138398885</v>
+        <v>0.1689913138398886</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1464555405465987</v>
+        <v>0.1430823610506091</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1953926492465066</v>
+        <v>0.1935294647101805</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>225</v>
@@ -4761,19 +4761,19 @@
         <v>149227</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>132357</v>
+        <v>131002</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>168505</v>
+        <v>171176</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1329632419377484</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1179315052096479</v>
+        <v>0.1167245491828478</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1501397334707378</v>
+        <v>0.1525194133918088</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>454891</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>442680</v>
+        <v>440745</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>465962</v>
+        <v>465372</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9120831238909718</v>
+        <v>0.9120831238909717</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8875993125227648</v>
+        <v>0.8837183766291076</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9342797590926731</v>
+        <v>0.9330971874378385</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>688</v>
@@ -4811,19 +4811,19 @@
         <v>518200</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>501737</v>
+        <v>502899</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>532253</v>
+        <v>534357</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8310086861601113</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8046073507534933</v>
+        <v>0.8064705352898195</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8535444594534013</v>
+        <v>0.8569176389493908</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1091</v>
@@ -4832,19 +4832,19 @@
         <v>973093</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>953815</v>
+        <v>951144</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>989963</v>
+        <v>991318</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8670367580622516</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8498602665292623</v>
+        <v>0.8474805866081913</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8820684947903519</v>
+        <v>0.8832754508171524</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>45949</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35265</v>
+        <v>36128</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58349</v>
+        <v>59224</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04785705925110954</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03672930326505246</v>
+        <v>0.03762826623081709</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06077103103541585</v>
+        <v>0.06168302800399309</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>223</v>
@@ -4957,19 +4957,19 @@
         <v>123126</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>107726</v>
+        <v>107269</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>141263</v>
+        <v>142125</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1103432673270895</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09654202342062777</v>
+        <v>0.09613230415876038</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1265969994169615</v>
+        <v>0.127369610716676</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>293</v>
@@ -4978,19 +4978,19 @@
         <v>169076</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>150928</v>
+        <v>149618</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>191384</v>
+        <v>190558</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08144360204196126</v>
+        <v>0.08144360204196124</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0727018611567367</v>
+        <v>0.07207075293593503</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09218958675069232</v>
+        <v>0.09179149297764311</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>914188</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>901788</v>
+        <v>900913</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>924872</v>
+        <v>924009</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9521429407488905</v>
+        <v>0.9521429407488904</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9392289689645842</v>
+        <v>0.9383169719960068</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9632706967349477</v>
+        <v>0.9623717337691828</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1384</v>
@@ -5028,19 +5028,19 @@
         <v>992723</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>974586</v>
+        <v>973724</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1008123</v>
+        <v>1008580</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8896567326729103</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8734030005830382</v>
+        <v>0.872630389283324</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9034579765793721</v>
+        <v>0.9038676958412398</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2224</v>
@@ -5049,19 +5049,19 @@
         <v>1906910</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1884602</v>
+        <v>1885428</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1925058</v>
+        <v>1926368</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9185563979580388</v>
+        <v>0.9185563979580387</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9078104132493077</v>
+        <v>0.9082085070223568</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9272981388432634</v>
+        <v>0.9279292470640653</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>37843</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28953</v>
+        <v>28210</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50961</v>
+        <v>48991</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03616233955872638</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02766669031229466</v>
+        <v>0.02695688009531494</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04869770198139388</v>
+        <v>0.04681528212806665</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>128</v>
@@ -5174,19 +5174,19 @@
         <v>69250</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>57224</v>
+        <v>57734</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>81992</v>
+        <v>82342</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06610047023133457</v>
+        <v>0.06610047023133458</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05462147473381596</v>
+        <v>0.05510894143893702</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07826317877316331</v>
+        <v>0.07859737257313373</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>182</v>
@@ -5195,19 +5195,19 @@
         <v>107093</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>90546</v>
+        <v>91979</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>123531</v>
+        <v>124615</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05113971358526125</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04323838817740213</v>
+        <v>0.04392236670613925</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0589892830111466</v>
+        <v>0.05950691918920607</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>1008636</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>995518</v>
+        <v>997488</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1017526</v>
+        <v>1018269</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9638376604412736</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.951302298018606</v>
+        <v>0.9531847178719333</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9723333096877055</v>
+        <v>0.9730431199046852</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1388</v>
@@ -5245,19 +5245,19 @@
         <v>978392</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>965650</v>
+        <v>965300</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>990418</v>
+        <v>989908</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9338995297686654</v>
+        <v>0.9338995297686656</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9217368212268368</v>
+        <v>0.9214026274268662</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.945378525266184</v>
+        <v>0.944891058561063</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2363</v>
@@ -5266,19 +5266,19 @@
         <v>1987028</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1970590</v>
+        <v>1969506</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2003575</v>
+        <v>2002142</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9488602864147387</v>
+        <v>0.9488602864147389</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9410107169888536</v>
+        <v>0.940493080810794</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9567616118225978</v>
+        <v>0.9560776332938611</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>37256</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28174</v>
+        <v>27960</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49065</v>
+        <v>48792</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03817528046710233</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02886900342621487</v>
+        <v>0.02864977047473932</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05027486003019154</v>
+        <v>0.0499955391244889</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>106</v>
@@ -5391,19 +5391,19 @@
         <v>54928</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44729</v>
+        <v>44280</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66086</v>
+        <v>65475</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06033763535288118</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04913412394507927</v>
+        <v>0.04864092006502329</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07259449413604853</v>
+        <v>0.07192329187582398</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>160</v>
@@ -5412,19 +5412,19 @@
         <v>92184</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>77185</v>
+        <v>77498</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>106989</v>
+        <v>108059</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0488711744819423</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04091908933439471</v>
+        <v>0.0410853248953622</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05671988300849773</v>
+        <v>0.05728687191957124</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>938673</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>926864</v>
+        <v>927137</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>947755</v>
+        <v>947969</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9618247195328977</v>
+        <v>0.9618247195328976</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9497251399698087</v>
+        <v>0.950004460875511</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9711309965737852</v>
+        <v>0.9713502295252606</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1218</v>
@@ -5462,19 +5462,19 @@
         <v>855417</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>844259</v>
+        <v>844870</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>865616</v>
+        <v>866065</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9396623646471188</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9274055058639514</v>
+        <v>0.928076708124176</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9508658760549207</v>
+        <v>0.9513590799349766</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2111</v>
@@ -5483,19 +5483,19 @@
         <v>1794090</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1779285</v>
+        <v>1778215</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1809089</v>
+        <v>1808776</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9511288255180578</v>
+        <v>0.9511288255180577</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9432801169915022</v>
+        <v>0.9427131280804286</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9590809106656053</v>
+        <v>0.9589146751046376</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>164896</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>146456</v>
+        <v>144811</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>189232</v>
+        <v>189154</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04736654942268919</v>
+        <v>0.04736654942268918</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04206946169979092</v>
+        <v>0.04159706655115426</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05435693427629527</v>
+        <v>0.05433460187166698</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>630</v>
@@ -5608,19 +5608,19 @@
         <v>352684</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>327303</v>
+        <v>327611</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>380860</v>
+        <v>381010</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.09538655150700007</v>
+        <v>0.09538655150700008</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08852208026620136</v>
+        <v>0.08860550744937969</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1030070676407171</v>
+        <v>0.1030475799566814</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>860</v>
@@ -5629,19 +5629,19 @@
         <v>517580</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>482071</v>
+        <v>486371</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>552494</v>
+        <v>552191</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.0720994282309636</v>
+        <v>0.07209942823096359</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06715301872794928</v>
+        <v>0.06775200698449486</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07696296507084077</v>
+        <v>0.07692075153810521</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3316388</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3292052</v>
+        <v>3292130</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3334828</v>
+        <v>3336473</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9526334505773107</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9456430657237048</v>
+        <v>0.9456653981283331</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9579305383002092</v>
+        <v>0.9584029334488459</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4678</v>
@@ -5679,19 +5679,19 @@
         <v>3344732</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3316556</v>
+        <v>3316406</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3370113</v>
+        <v>3369805</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9046134484929998</v>
+        <v>0.904613448493</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8969929323592831</v>
+        <v>0.8969524200433188</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9114779197337988</v>
+        <v>0.9113944925506204</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7789</v>
@@ -5700,19 +5700,19 @@
         <v>6661121</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6626207</v>
+        <v>6626510</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6696630</v>
+        <v>6692330</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9279005717690365</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9230370349291591</v>
+        <v>0.9230792484618948</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9328469812720503</v>
+        <v>0.9322479930155048</v>
       </c>
     </row>
     <row r="18">
